--- a/tunbis/tunbis/z_computer_info_p.xlsx
+++ b/tunbis/tunbis/z_computer_info_p.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20414"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tunceli BT\Documents\GitHub\tunbis\tunbis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tunceli BT\Documents\GitHub\msakkaya\tunbis\tunbis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EA1CB9D-F305-45C3-A4CA-AEE6261C9195}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3825,7 +3824,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4138,12 +4137,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:AE513"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H386" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="Q529" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A279" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A359" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -26889,7 +26888,7 @@
       <c r="AE513"/>
     </row>
   </sheetData>
-  <autoFilter ref="AE1:AE513" xr:uid="{95FEC011-B542-47E2-8019-697A3E59CF1D}">
+  <autoFilter ref="AE1:AE513">
     <filterColumn colId="0">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
